--- a/trend_results/Lakes/LakeKoputara_4fb59b52cf.xlsx
+++ b/trend_results/Lakes/LakeKoputara_4fb59b52cf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>site name</t>
   </si>
@@ -118,22 +118,19 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -609,13 +606,13 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.283342976396159</v>
+        <v>0.406196934640067</v>
       </c>
       <c r="G2">
-        <v>0.0357142857142857</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -624,16 +621,16 @@
         <v>17.5</v>
       </c>
       <c r="K2">
-        <v>1.23729201530002</v>
+        <v>0.325148367952522</v>
       </c>
       <c r="L2">
-        <v>-5.24913565419622</v>
+        <v>-5.18454353058151</v>
       </c>
       <c r="M2">
-        <v>6.40323609076862</v>
+        <v>7.51508297767644</v>
       </c>
       <c r="N2">
-        <v>7.07024008742871</v>
+        <v>1.85799067401441</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
@@ -648,19 +645,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -677,40 +674,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.338805208458113</v>
+        <v>0.41195076878754</v>
       </c>
       <c r="G3">
-        <v>0.107142857142857</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>0.852941176470588</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K3">
-        <v>2.7308789322109</v>
+        <v>1.05716353111433</v>
       </c>
       <c r="L3">
-        <v>-8.426874863233291</v>
+        <v>-20.8286356214149</v>
       </c>
       <c r="M3">
-        <v>23.9321003096557</v>
+        <v>23.3747096756571</v>
       </c>
       <c r="N3">
-        <v>3.95779555392884</v>
+        <v>1.11280371696245</v>
       </c>
       <c r="O3" t="s">
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3">
         <v>1792051.4058</v>
@@ -719,19 +716,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -751,31 +748,31 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0.539696175513583</v>
+        <v>0.304565035041814</v>
       </c>
       <c r="G4">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.037364886834547</v>
+        <v>0.0402964362697421</v>
       </c>
       <c r="K4">
-        <v>-0.0002955894085786</v>
+        <v>0.0045788965678486</v>
       </c>
       <c r="L4">
-        <v>-0.0145792863318594</v>
+        <v>-0.0075787214238132</v>
       </c>
       <c r="M4">
-        <v>0.0153583537880696</v>
+        <v>0.0221148209100165</v>
       </c>
       <c r="N4">
-        <v>-0.791088729607239</v>
+        <v>11.3630310561403</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
@@ -790,19 +787,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
         <v>40</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>41</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>42</v>
       </c>
-      <c r="V4" t="s">
-        <v>43</v>
-      </c>
       <c r="W4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -822,25 +819,25 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.78691254309527</v>
+        <v>0.662941723549949</v>
       </c>
       <c r="G5">
-        <v>0.571428571428571</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.00625</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0035205866643355</v>
+        <v>-0.0017901848571655</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -852,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q5">
         <v>1792051.4058</v>
@@ -861,19 +858,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
         <v>40</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>41</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>42</v>
       </c>
-      <c r="V5" t="s">
-        <v>43</v>
-      </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,37 +890,37 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>0.014501002863467</v>
+        <v>0.201296352630635</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.958333333333333</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.005000000000001</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="K6">
-        <v>-0.208707292477302</v>
+        <v>-0.0557248352894975</v>
       </c>
       <c r="L6">
-        <v>-0.390054098822136</v>
+        <v>-0.197061151839092</v>
       </c>
       <c r="M6">
-        <v>-0.0369590400272775</v>
+        <v>0.0275997349523834</v>
       </c>
       <c r="N6">
-        <v>-2.60721164868585</v>
+        <v>-0.693958098250281</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1792051.4058</v>
@@ -932,16 +929,16 @@
         <v>5525527.23199</v>
       </c>
       <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
         <v>40</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>41</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>42</v>
-      </c>
-      <c r="V6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,13 +958,13 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.907282310466496</v>
+        <v>0.541338080882619</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.928571428571429</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -976,22 +973,22 @@
         <v>2.5</v>
       </c>
       <c r="K7">
-        <v>-0.117863739219822</v>
+        <v>-0.0179926108374385</v>
       </c>
       <c r="L7">
-        <v>-0.352294518452791</v>
+        <v>-0.179618603538539</v>
       </c>
       <c r="M7">
-        <v>0.0296171930183271</v>
+        <v>0.275776565845032</v>
       </c>
       <c r="N7">
-        <v>-4.71454956879289</v>
+        <v>-0.719704433497541</v>
       </c>
       <c r="O7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q7">
         <v>1792051.4058</v>
@@ -1000,19 +997,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
         <v>40</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>41</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>42</v>
       </c>
-      <c r="V7" t="s">
-        <v>43</v>
-      </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,37 +1029,37 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.226358135632981</v>
+        <v>0.224785718555225</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.964285714285714</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.479</v>
+        <v>0.505</v>
       </c>
       <c r="K8">
-        <v>0.0280814652577548</v>
+        <v>0.039566844082655</v>
       </c>
       <c r="L8">
-        <v>-0.0618929127337586</v>
+        <v>-0.053403652436933</v>
       </c>
       <c r="M8">
-        <v>0.136448530603195</v>
+        <v>0.194065946230995</v>
       </c>
       <c r="N8">
-        <v>5.86251884295508</v>
+        <v>7.83501863022871</v>
       </c>
       <c r="O8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8">
         <v>1792051.4058</v>
@@ -1071,19 +1068,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="s">
         <v>40</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>41</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>42</v>
       </c>
-      <c r="V8" t="s">
-        <v>43</v>
-      </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1103,13 +1100,13 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>0.384648631795777</v>
+        <v>0.423860285368769</v>
       </c>
       <c r="G9">
-        <v>0.0930232558139535</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="H9">
-        <v>0.86046511627907</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1118,22 +1115,22 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.262533692722372</v>
+        <v>0.104940669449598</v>
       </c>
       <c r="L9">
-        <v>-2.57523385791008</v>
+        <v>-2.38749110966386</v>
       </c>
       <c r="M9">
-        <v>1.90159643042887</v>
+        <v>1.53175400448368</v>
       </c>
       <c r="N9">
-        <v>1.31266846361186</v>
+        <v>0.5247033472479909</v>
       </c>
       <c r="O9" t="s">
         <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>1792051.4058</v>
@@ -1142,19 +1139,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
         <v>40</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>41</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>42</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>43</v>
-      </c>
-      <c r="W9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,37 +1171,37 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>0.0977319697586575</v>
+        <v>0.0607584431279764</v>
       </c>
       <c r="G10">
-        <v>0.075</v>
+        <v>0.06</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>53.5</v>
+        <v>55.8</v>
       </c>
       <c r="K10">
-        <v>4.40969502280324</v>
+        <v>4.44359447004608</v>
       </c>
       <c r="L10">
-        <v>-0.711013797288976</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.4206607693168</v>
+        <v>11.8206881096651</v>
       </c>
       <c r="N10">
-        <v>8.242420603370549</v>
+        <v>7.96343094990337</v>
       </c>
       <c r="O10" t="s">
         <v>33</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1792051.4058</v>
@@ -1213,19 +1210,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
         <v>40</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>41</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>42</v>
       </c>
-      <c r="V10" t="s">
-        <v>43</v>
-      </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1245,19 +1242,19 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>0.7414982303029241</v>
+        <v>0.700362226098845</v>
       </c>
       <c r="G11">
-        <v>0.5238095238095239</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.5192307692307691</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
-        <v>0.00375</v>
+        <v>0.0075</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1275,7 +1272,7 @@
         <v>33</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>1792051.4058</v>
@@ -1284,19 +1281,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
         <v>40</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>41</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>42</v>
       </c>
-      <c r="V11" t="s">
-        <v>43</v>
-      </c>
       <c r="W11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1316,13 +1313,13 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.8523710277700089</v>
+        <v>0.730296640119611</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.953488372093023</v>
+        <v>0.943396226415094</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1331,22 +1328,22 @@
         <v>2.47</v>
       </c>
       <c r="K12">
-        <v>-0.0614603365384615</v>
+        <v>-0.0348074325283083</v>
       </c>
       <c r="L12">
-        <v>-0.158834342650061</v>
+        <v>-0.115658012836682</v>
       </c>
       <c r="M12">
-        <v>0.0342636209206685</v>
+        <v>0.0500967844363482</v>
       </c>
       <c r="N12">
-        <v>-2.48827273435067</v>
+        <v>-1.40920779466835</v>
       </c>
       <c r="O12" t="s">
         <v>33</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q12">
         <v>1792051.4058</v>
@@ -1355,19 +1352,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
         <v>40</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>41</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>42</v>
       </c>
-      <c r="V12" t="s">
-        <v>43</v>
-      </c>
       <c r="W12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1387,13 +1384,13 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.326341618500672</v>
+        <v>0.19092686218868</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.976744186046512</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1402,22 +1399,22 @@
         <v>0.499</v>
       </c>
       <c r="K13">
-        <v>0.0107356303069889</v>
+        <v>0.0164274158321334</v>
       </c>
       <c r="L13">
-        <v>-0.0395731053576574</v>
+        <v>-0.0163867806383168</v>
       </c>
       <c r="M13">
-        <v>0.0451634184142807</v>
+        <v>0.0545619792803269</v>
       </c>
       <c r="N13">
-        <v>2.15142891923625</v>
+        <v>3.29206730102874</v>
       </c>
       <c r="O13" t="s">
         <v>33</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13">
         <v>1792051.4058</v>
@@ -1426,19 +1423,19 @@
         <v>5525527.23199</v>
       </c>
       <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
         <v>40</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>41</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>42</v>
       </c>
-      <c r="V13" t="s">
-        <v>43</v>
-      </c>
       <c r="W13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
